--- a/data/case1/20/V2_3.xlsx
+++ b/data/case1/20/V2_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999328187206</v>
+        <v>0.9999999992646067</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.9952468894593699</v>
+        <v>0.99547375265234017</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97441314233968512</v>
+        <v>0.97494050540500299</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.96491060210925816</v>
+        <v>0.96683286039723559</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.95582667555801037</v>
+        <v>0.95918810983866121</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.93300082153888009</v>
+        <v>0.94099166954989433</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.92754058476244139</v>
+        <v>0.93735635355740898</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.91819814717802317</v>
+        <v>0.93286898584076616</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.90644512164759639</v>
+        <v>0.92901533009105153</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.89561168505447475</v>
+        <v>0.9181839202086477</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.8940149625302839</v>
+        <v>0.91658741361611784</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.8912341082734595</v>
+        <v>0.91380706479607543</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.87994352286500443</v>
+        <v>0.90251818920744187</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.87577540895427175</v>
+        <v>0.89835032600394737</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.87318354345486593</v>
+        <v>0.89575855250618508</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.87067678090962952</v>
+        <v>0.89325187128124872</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.86696859004897253</v>
+        <v>0.88954371055450232</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.86585966538283154</v>
+        <v>0.88843475668407956</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99384497495158863</v>
+        <v>0.994420456022445</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98359859775082836</v>
+        <v>0.98730313823370364</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98128420808544092</v>
+        <v>0.98590460135644697</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.97836958099845184</v>
+        <v>0.98464008707227502</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.96737763433387114</v>
+        <v>0.96631096497866331</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95435603052678397</v>
+        <v>0.94998018602123535</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.94789891518807412</v>
+        <v>0.94352298582423444</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.93175727399059416</v>
+        <v>0.93933374745755294</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.93027632566528196</v>
+        <v>0.93727329781983282</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.92362513231471222</v>
+        <v>0.92870870588505072</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.91941716635527992</v>
+        <v>0.92718205875702375</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.91868758499596648</v>
+        <v>0.92768779893955244</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.92497871220204719</v>
+        <v>0.93751256273917338</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.92806782307233138</v>
+        <v>0.94187141228328353</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.93358174810552219</v>
+        <v>0.94867369977208238</v>
       </c>
     </row>
   </sheetData>
